--- a/teams.xlsx
+++ b/teams.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>975</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Vitality</t>
+          <t>FaZe</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/team/9565/vitality</t>
+          <t>/team/6667/faze</t>
         </is>
       </c>
     </row>
@@ -485,27 +485,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>apEX</t>
+          <t>karrigan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ZywOo</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>flameZ</t>
+          <t>frozen</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Spinx</t>
+          <t>ropz</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>mezii</t>
+          <t>broky</t>
         </is>
       </c>
     </row>
@@ -517,27 +517,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dan Madesclaire</t>
+          <t>Finn Andersen</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mathieu Herbaut</t>
+          <t>Håvard Nygaard</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Shahar Shushan</t>
+          <t>David Čerňanský</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lotan Giladi</t>
+          <t>Robin Kool</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>William Merriman</t>
+          <t>Helvijs Saukants</t>
         </is>
       </c>
     </row>
@@ -549,27 +549,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -581,27 +581,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
@@ -613,27 +613,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/player/7322/apex</t>
+          <t>/player/429/karrigan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/player/11893/zywoo</t>
+          <t>/player/8183/rain</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/player/16693/flamez</t>
+          <t>/player/9960/frozen</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>/player/18221/spinx</t>
+          <t>/player/11816/ropz</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>/player/18462/mezii</t>
+          <t>/player/18053/broky</t>
         </is>
       </c>
     </row>
@@ -645,17 +645,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>759</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>FaZe</t>
+          <t>Vitality</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>/team/6667/faze</t>
+          <t>/team/9565/vitality</t>
         </is>
       </c>
     </row>
@@ -667,27 +667,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>karrigan</t>
+          <t>apEX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>ZywOo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>frozen</t>
+          <t>flameZ</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ropz</t>
+          <t>Spinx</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>broky</t>
+          <t>mezii</t>
         </is>
       </c>
     </row>
@@ -699,27 +699,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Finn Andersen</t>
+          <t>Dan Madesclaire</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Håvard Nygaard</t>
+          <t>Mathieu Herbaut</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>David Čerňanský</t>
+          <t>Shahar Shushan</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Robin Kool</t>
+          <t>Lotan Giladi</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Helvijs Saukants</t>
+          <t>William Merriman</t>
         </is>
       </c>
     </row>
@@ -731,27 +731,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -763,27 +763,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
@@ -795,27 +795,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/player/429/karrigan</t>
+          <t>/player/7322/apex</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/player/8183/rain</t>
+          <t>/player/11893/zywoo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/player/9960/frozen</t>
+          <t>/player/16693/flamez</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/player/11816/ropz</t>
+          <t>/player/18221/spinx</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>/player/18053/broky</t>
+          <t>/player/18462/mezii</t>
         </is>
       </c>
     </row>
@@ -827,17 +827,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>634</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Natus Vincere</t>
+          <t>Spirit</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>/team/4608/natus-vincere</t>
+          <t>/team/7020/spirit</t>
         </is>
       </c>
     </row>
@@ -849,27 +849,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aleksib</t>
+          <t>chopper</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>iM</t>
+          <t>sh1ro</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>b1t</t>
+          <t>magixx</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>jL</t>
+          <t>zont1x</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>w0nderful</t>
+          <t>donk</t>
         </is>
       </c>
     </row>
@@ -881,27 +881,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aleksi Virolainen</t>
+          <t>Leonid Vishnyakov</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mihai Ivan</t>
+          <t>Dmitry Sokolov</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Valeriy Vakhovskiy</t>
+          <t>Boris Vorobiev</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Justinas Lekavicius</t>
+          <t>Myroslav Plakhotia</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ihor Zhdanov</t>
+          <t>Danil Kryshkovets</t>
         </is>
       </c>
     </row>
@@ -913,27 +913,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -945,27 +945,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -977,27 +977,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/player/9816/aleksib</t>
+          <t>/player/7716/chopper</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/player/14759/im</t>
+          <t>/player/16920/sh1ro</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/player/18987/b1t</t>
+          <t>/player/18317/magixx</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>/player/19206/jl</t>
+          <t>/player/20423/zont1x</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>/player/20127/w0nderful</t>
+          <t>/player/21167/donk</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Virtus.pro</t>
+          <t>MOUZ</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>/team/5378/virtuspro</t>
+          <t>/team/4494/mouz</t>
         </is>
       </c>
     </row>
@@ -1031,27 +1031,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mir</t>
+          <t>Brollan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FL1T</t>
+          <t>siuhy</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jame</t>
+          <t>torzsi</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>n0rb3r7</t>
+          <t>Jimpphat</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>fame</t>
+          <t>xertioN</t>
         </is>
       </c>
     </row>
@@ -1063,27 +1063,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nikolay Bityukov</t>
+          <t>Ludvig Brolin</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Evgenii Lebedev</t>
+          <t>Kamil Szkaradek</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dzhami Ali</t>
+          <t>Ádám Torzsás</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>David Danielyan</t>
+          <t>Jimi Salo</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Petr Bolyshev</t>
+          <t>Dorian Berman</t>
         </is>
       </c>
     </row>
@@ -1095,27 +1095,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1127,27 +1127,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
@@ -1159,27 +1159,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/player/8789/mir</t>
+          <t>/player/13666/brollan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/player/12732/fl1t</t>
+          <t>/player/16820/siuhy</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/player/13776/jame</t>
+          <t>/player/18072/torzsi</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>/player/16612/n0rb3r7</t>
+          <t>/player/18850/jimpphat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>/player/20101/fame</t>
+          <t>/player/20312/xertion</t>
         </is>
       </c>
     </row>
@@ -1191,17 +1191,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>MOUZ</t>
+          <t>G2</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>/team/4494/mouz</t>
+          <t>/team/5995/g2</t>
         </is>
       </c>
     </row>
@@ -1213,27 +1213,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Brollan</t>
+          <t>NiKo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>siuhy</t>
+          <t>huNter-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>torzsi</t>
+          <t>nexa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Jimpphat</t>
+          <t>HooXi</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>xertioN</t>
+          <t>m0NESY</t>
         </is>
       </c>
     </row>
@@ -1245,27 +1245,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ludvig Brolin</t>
+          <t>Nikola Kovač</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kamil Szkaradek</t>
+          <t>Nemanja Kovač</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ádám Torzsás</t>
+          <t>Nemanja Isaković</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Jimi Salo</t>
+          <t>Rasmus Nielsen</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dorian Berman</t>
+          <t>Ilya Osipov</t>
         </is>
       </c>
     </row>
@@ -1277,27 +1277,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1309,27 +1309,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1341,27 +1341,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/player/13666/brollan</t>
+          <t>/player/3741/niko</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/player/16820/siuhy</t>
+          <t>/player/3972/hunter</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/player/18072/torzsi</t>
+          <t>/player/9618/nexa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>/player/18850/jimpphat</t>
+          <t>/player/10096/hooxi</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>/player/20312/xertion</t>
+          <t>/player/19230/m0nesy</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>Natus Vincere</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>/team/5995/g2</t>
+          <t>/team/4608/natus-vincere</t>
         </is>
       </c>
     </row>
@@ -1395,27 +1395,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NiKo</t>
+          <t>Aleksib</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>huNter-</t>
+          <t>iM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>nexa</t>
+          <t>b1t</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>HooXi</t>
+          <t>jL</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>m0NESY</t>
+          <t>w0nderful</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nikola Kovač</t>
+          <t>Aleksi Virolainen</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nemanja Kovač</t>
+          <t>Mihai Ivan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nemanja Isaković</t>
+          <t>Valeriy Vakhovskiy</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rasmus Nielsen</t>
+          <t>Justinas Lekavicius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Ilya Osipov</t>
+          <t>Ihor Zhdanov</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
@@ -1523,27 +1523,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/player/3741/niko</t>
+          <t>/player/9816/aleksib</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/player/3972/hunter</t>
+          <t>/player/14759/im</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/player/9618/nexa</t>
+          <t>/player/18987/b1t</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>/player/10096/hooxi</t>
+          <t>/player/19206/jl</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>/player/19230/m0nesy</t>
+          <t>/player/20127/w0nderful</t>
         </is>
       </c>
     </row>
@@ -1555,17 +1555,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Cloud9</t>
+          <t>Falcons</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>/team/5752/cloud9</t>
+          <t>/team/11283/falcons</t>
         </is>
       </c>
     </row>
@@ -1577,27 +1577,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HObbit</t>
+          <t>Snappi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>electroNic</t>
+          <t>Magisk</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Boombl4</t>
+          <t>Maden</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ax1Le</t>
+          <t>SunPayus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Perfecto</t>
+          <t>BOROS</t>
         </is>
       </c>
     </row>
@@ -1609,27 +1609,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Abay Khassenov</t>
+          <t>Marco Pfeiffer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Denis Sharipov</t>
+          <t>Emil Reif</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kirill Mikhailov</t>
+          <t>Pavle Bošković</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sergey Rykhtorov</t>
+          <t>Álvaro García</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ilya Zalutskiy</t>
+          <t>Mohammad Malhas</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1673,27 +1673,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Jordan</t>
         </is>
       </c>
     </row>
@@ -1705,27 +1705,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/player/8528/hobbit</t>
+          <t>/player/922/snappi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>/player/8918/electronic</t>
+          <t>/player/9032/magisk</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/player/11840/boombl4</t>
+          <t>/player/11777/maden</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>/player/16555/ax1le</t>
+          <t>/player/19164/sunpayus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>/player/16947/perfecto</t>
+          <t>/player/19763/boros</t>
         </is>
       </c>
     </row>
@@ -1737,17 +1737,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Virtus.pro</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>/team/5005/complexity</t>
+          <t>/team/5378/virtuspro</t>
         </is>
       </c>
     </row>
@@ -1759,27 +1759,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>EliGE</t>
+          <t>mir</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>JT</t>
+          <t>FL1T</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>floppy</t>
+          <t>Jame</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>hallzerk</t>
+          <t>n0rb3r7</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Grim</t>
+          <t>fame</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1791,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jonathan Jablonowski</t>
+          <t>Nikolay Bityukov</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Johnny Theodosiou</t>
+          <t>Evgenii Lebedev</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ricky Kemery</t>
+          <t>Dzhami Ali</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Håkon Fjærli</t>
+          <t>David Danielyan</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Michael Wince</t>
+          <t>Petr Bolyshev</t>
         </is>
       </c>
     </row>
@@ -1823,27 +1823,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1855,27 +1855,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1887,27 +1887,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/player/8738/elige</t>
+          <t>/player/8789/mir</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>/player/11630/jt</t>
+          <t>/player/12732/fl1t</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/player/12713/floppy</t>
+          <t>/player/13776/jame</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>/player/12840/hallzerk</t>
+          <t>/player/16612/n0rb3r7</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>/player/13578/grim</t>
+          <t>/player/20101/fame</t>
         </is>
       </c>
     </row>
@@ -1919,17 +1919,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Monte</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>/team/11811/monte</t>
+          <t>/team/5005/complexity</t>
         </is>
       </c>
     </row>
@@ -1941,27 +1941,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sdy</t>
+          <t>EliGE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>br0</t>
+          <t>JT</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Woro2k</t>
+          <t>floppy</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>DemQQ</t>
+          <t>hallzerk</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>kRaSnaL</t>
+          <t>Grim</t>
         </is>
       </c>
     </row>
@@ -1973,27 +1973,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Viktor Orudzhev</t>
+          <t>Jonathan Jablonowski</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Alexander Bro</t>
+          <t>Johnny Theodosiou</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Volodymyr Veletniuk</t>
+          <t>Ricky Kemery</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sergiy Demchenko</t>
+          <t>Håkon Fjærli</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Szymon Mrozek</t>
+          <t>Michael Wince</t>
         </is>
       </c>
     </row>
@@ -2010,22 +2010,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -2069,27 +2069,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/player/12731/sdy</t>
+          <t>/player/8738/elige</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>/player/16717/br0</t>
+          <t>/player/11630/jt</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/player/16885/woro2k</t>
+          <t>/player/12713/floppy</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>/player/19733/demqq</t>
+          <t>/player/12840/hallzerk</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>/player/20282/krasnal</t>
+          <t>/player/13578/grim</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Apeks</t>
+          <t>Monte</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>/team/9806/apeks</t>
+          <t>/team/11811/monte</t>
         </is>
       </c>
     </row>
@@ -2123,27 +2123,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>STYKO</t>
+          <t>sdy</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>jkaem</t>
+          <t>br0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>nawwk</t>
+          <t>Woro2k</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>DemQQ</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CacaNito</t>
+          <t>kRaSnaL</t>
         </is>
       </c>
     </row>
@@ -2155,27 +2155,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Martin Styk</t>
+          <t>Viktor Orudzhev</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Joakim Myrbostad</t>
+          <t>Alexander Bro</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tim Jonasson</t>
+          <t>Volodymyr Veletniuk</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ådne Fredriksen</t>
+          <t>Sergiy Demchenko</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aleksandar Kjulukoski</t>
+          <t>Szymon Mrozek</t>
         </is>
       </c>
     </row>
@@ -2187,27 +2187,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2219,27 +2219,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -2251,27 +2251,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/player/6904/styko</t>
+          <t>/player/12731/sdy</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>/player/8248/jkaem</t>
+          <t>/player/16717/br0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/player/13670/nawwk</t>
+          <t>/player/16885/woro2k</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>/player/17450/sense</t>
+          <t>/player/19733/demqq</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>/player/18790/cacanito</t>
+          <t>/player/20282/krasnal</t>
         </is>
       </c>
     </row>
@@ -2283,17 +2283,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>Spirit</t>
+          <t>Cloud9</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>/team/7020/spirit</t>
+          <t>/team/5752/cloud9</t>
         </is>
       </c>
     </row>
@@ -2305,27 +2305,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>chopper</t>
+          <t>HObbit</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>sh1ro</t>
+          <t>electroNic</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>magixx</t>
+          <t>Boombl4</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>zont1x</t>
+          <t>Ax1Le</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>donk</t>
+          <t>Perfecto</t>
         </is>
       </c>
     </row>
@@ -2337,27 +2337,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Leonid Vishnyakov</t>
+          <t>Abay Khassenov</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Dmitry Sokolov</t>
+          <t>Denis Sharipov</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Boris Vorobiev</t>
+          <t>Kirill Mikhailov</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Myroslav Plakhotia</t>
+          <t>Sergey Rykhtorov</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Danil Kryshkovets</t>
+          <t>Ilya Zalutskiy</t>
         </is>
       </c>
     </row>
@@ -2369,27 +2369,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2401,22 +2401,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>Russia</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2433,27 +2433,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/player/7716/chopper</t>
+          <t>/player/8528/hobbit</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>/player/16920/sh1ro</t>
+          <t>/player/8918/electronic</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/player/18317/magixx</t>
+          <t>/player/11840/boombl4</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>/player/20423/zont1x</t>
+          <t>/player/16555/ax1le</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>/player/21167/donk</t>
+          <t>/player/16947/perfecto</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>FURIA</t>
+          <t>Apeks</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>/team/8297/furia</t>
+          <t>/team/9806/apeks</t>
         </is>
       </c>
     </row>
@@ -2487,27 +2487,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FalleN</t>
+          <t>STYKO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>chelo</t>
+          <t>jkaem</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>arT</t>
+          <t>nawwk</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>yuurih</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>KSCERATO</t>
+          <t>CacaNito</t>
         </is>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Gabriel Toledo</t>
+          <t>Martin Styk</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Marcelo Cespedes</t>
+          <t>Joakim Myrbostad</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Andrei Piovezan</t>
+          <t>Tim Jonasson</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Yuri Santos</t>
+          <t>Ådne Fredriksen</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Kaike Cerato</t>
+          <t>Aleksandar Kjulukoski</t>
         </is>
       </c>
     </row>
@@ -2551,27 +2551,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -2583,27 +2583,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>North Macedonia</t>
         </is>
       </c>
     </row>
@@ -2615,27 +2615,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/player/2023/fallen</t>
+          <t>/player/6904/styko</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>/player/10566/chelo</t>
+          <t>/player/8248/jkaem</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/player/12521/art</t>
+          <t>/player/13670/nawwk</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>/player/12553/yuurih</t>
+          <t>/player/17450/sense</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>/player/15631/kscerato</t>
+          <t>/player/18790/cacanito</t>
         </is>
       </c>
     </row>
@@ -2647,17 +2647,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>Falcons</t>
+          <t>ENCE</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>/team/11283/falcons</t>
+          <t>/team/4869/ence</t>
         </is>
       </c>
     </row>
@@ -2669,27 +2669,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Snappi</t>
+          <t>gla1ve</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Magisk</t>
+          <t>Goofy</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Maden</t>
+          <t>dycha</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SunPayus</t>
+          <t>hades</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>BOROS</t>
+          <t>Kylar</t>
         </is>
       </c>
     </row>
@@ -2701,27 +2701,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Marco Pfeiffer</t>
+          <t>Lukas Rossander</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Emil Reif</t>
+          <t>Krzysztof Górski</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pavle Bošković</t>
+          <t>Paweł Dycha</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Álvaro García</t>
+          <t>Olek Miskiewicz</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Mohammad Malhas</t>
+          <t>Kacper Walukiewicz</t>
         </is>
       </c>
     </row>
@@ -2733,27 +2733,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2770,22 +2770,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -2797,27 +2797,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/player/922/snappi</t>
+          <t>/player/7412/gla1ve</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>/player/9032/magisk</t>
+          <t>/player/15428/goofy</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/player/11777/maden</t>
+          <t>/player/16080/dycha</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>/player/19164/sunpayus</t>
+          <t>/player/16848/hades</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>/player/19763/boros</t>
+          <t>/player/19114/kylar</t>
         </is>
       </c>
     </row>
@@ -2829,17 +2829,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>Eternal Fire</t>
+          <t>FURIA</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>/team/11251/eternal-fire</t>
+          <t>/team/8297/furia</t>
         </is>
       </c>
     </row>
@@ -2851,27 +2851,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MAJ3R</t>
+          <t>FalleN</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>XANTARES</t>
+          <t>chelo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>woxic</t>
+          <t>arT</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Calyx</t>
+          <t>yuurih</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Wicadia</t>
+          <t>KSCERATO</t>
         </is>
       </c>
     </row>
@@ -2883,27 +2883,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Engin Küpeli</t>
+          <t>Gabriel Toledo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ismailcan Dörtkardeş</t>
+          <t>Marcelo Cespedes</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Özgür Eker</t>
+          <t>Andrei Piovezan</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Buğra Arkın</t>
+          <t>Yuri Santos</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Ali Haydar Yalçın</t>
+          <t>Kaike Cerato</t>
         </is>
       </c>
     </row>
@@ -2915,27 +2915,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2947,27 +2947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
@@ -2979,27 +2979,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>/player/150/maj3r</t>
+          <t>/player/2023/fallen</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>/player/7938/xantares</t>
+          <t>/player/10566/chelo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>/player/8574/woxic</t>
+          <t>/player/12521/art</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>/player/8575/calyx</t>
+          <t>/player/12553/yuurih</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>/player/21243/wicadia</t>
+          <t>/player/15631/kscerato</t>
         </is>
       </c>
     </row>
@@ -3011,17 +3011,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>Astralis</t>
+          <t>Heroic</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>/team/6665/astralis</t>
+          <t>/team/7175/heroic</t>
         </is>
       </c>
     </row>
@@ -3033,27 +3033,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>device</t>
+          <t>NertZ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>stavn</t>
+          <t>TeSeS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>blameF</t>
+          <t>nicoodoz</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>jabbi</t>
+          <t>sjuush</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Staehr</t>
+          <t>kyxsan</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Nicolai Reedtz</t>
+          <t>Guy Iluz</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Martin Lund</t>
+          <t>René Madsen</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Benjamin Bremer</t>
+          <t>Nico Tamjidi</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Jakob Nygaard</t>
+          <t>Rasmus Beck</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Victor Staehr</t>
+          <t>Damjan Stoilkovski</t>
         </is>
       </c>
     </row>
@@ -3097,27 +3097,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -3129,27 +3129,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>North Macedonia</t>
         </is>
       </c>
     </row>
@@ -3161,27 +3161,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>/player/7592/device</t>
+          <t>/player/9436/nertz</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>/player/10994/stavn</t>
+          <t>/player/12018/teses</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>/player/15165/blamef</t>
+          <t>/player/13602/nicoodoz</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>/player/17956/jabbi</t>
+          <t>/player/14148/sjuush</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>/player/20304/staehr</t>
+          <t>/player/19677/kyxsan</t>
         </is>
       </c>
     </row>
@@ -3193,17 +3193,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>GamerLegion</t>
+          <t>Eternal Fire</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>/team/9928/gamerlegion</t>
+          <t>/team/11251/eternal-fire</t>
         </is>
       </c>
     </row>
@@ -3215,27 +3215,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Snax</t>
+          <t>MAJ3R</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>acoR</t>
+          <t>XANTARES</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Keoz</t>
+          <t>woxic</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>isak</t>
+          <t>Calyx</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>volt</t>
+          <t>Wicadia</t>
         </is>
       </c>
     </row>
@@ -3247,27 +3247,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Janusz Pogorzelski</t>
+          <t>Engin Küpeli</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Frederik Gyldstrand</t>
+          <t>Ismailcan Dörtkardeş</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Nicolas Dgus</t>
+          <t>Özgür Eker</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Isak Fahlén</t>
+          <t>Buğra Arkın</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sebastian Maloș</t>
+          <t>Ali Haydar Yalçın</t>
         </is>
       </c>
     </row>
@@ -3279,27 +3279,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -3311,27 +3311,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -3343,27 +3343,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>/player/2553/snax</t>
+          <t>/player/150/maj3r</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>/player/10330/acor</t>
+          <t>/player/7938/xantares</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>/player/15117/keoz</t>
+          <t>/player/8574/woxic</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>/player/17937/isak</t>
+          <t>/player/8575/calyx</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>/player/20358/volt</t>
+          <t>/player/21243/wicadia</t>
         </is>
       </c>
     </row>
@@ -3375,17 +3375,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>MIBR</t>
+          <t>GamerLegion</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>/team/9215/mibr</t>
+          <t>/team/9928/gamerlegion</t>
         </is>
       </c>
     </row>
@@ -3397,27 +3397,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>Snax</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>saffee</t>
+          <t>acoR</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>drop</t>
+          <t>Keoz</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>brnz4n</t>
+          <t>isak</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>insani</t>
+          <t>volt</t>
         </is>
       </c>
     </row>
@@ -3429,27 +3429,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Raphael Lacerda</t>
+          <t>Janusz Pogorzelski</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rafael Costa</t>
+          <t>Frederik Gyldstrand</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>André Abreu</t>
+          <t>Nicolas Dgus</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Breno Poletto</t>
+          <t>Isak Fahlén</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Felipe Yuji</t>
+          <t>Sebastian Maloș</t>
         </is>
       </c>
     </row>
@@ -3461,27 +3461,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -3493,27 +3493,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -3525,27 +3525,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>/player/11154/exit</t>
+          <t>/player/2553/snax</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>/player/18835/saffee</t>
+          <t>/player/10330/acor</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>/player/19750/drop</t>
+          <t>/player/15117/keoz</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>/player/20987/brnz4n</t>
+          <t>/player/17937/isak</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>/player/21037/insani</t>
+          <t>/player/20358/volt</t>
         </is>
       </c>
     </row>
@@ -3557,17 +3557,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>BetBoom</t>
+          <t>Astralis</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>/team/12394/betboom</t>
+          <t>/team/6665/astralis</t>
         </is>
       </c>
     </row>
@@ -3579,27 +3579,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>zorte</t>
+          <t>device</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>nafany</t>
+          <t>stavn</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>s1ren</t>
+          <t>blameF</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>KaiR0N-</t>
+          <t>jabbi</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>danistzz</t>
+          <t>Staehr</t>
         </is>
       </c>
     </row>
@@ -3611,27 +3611,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Aleksandr Zagodyrenko</t>
+          <t>Nicolai Reedtz</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Vladislav Gorshkov</t>
+          <t>Martin Lund</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Pavel Ogloblin</t>
+          <t>Benjamin Bremer</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Aleksandr Anashkin</t>
+          <t>Jakob Nygaard</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Danil Roslyakov</t>
+          <t>Victor Staehr</t>
         </is>
       </c>
     </row>
@@ -3643,17 +3643,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -3675,27 +3675,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -3707,27 +3707,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>/player/15662/zorte</t>
+          <t>/player/7592/device</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>/player/16921/nafany</t>
+          <t>/player/10994/stavn</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>/player/18506/s1ren</t>
+          <t>/player/15165/blamef</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>/player/19920/kair0n</t>
+          <t>/player/17956/jabbi</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>/player/22039/danistzz</t>
+          <t>/player/20304/staehr</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D110" s="1" t="inlineStr">
@@ -3921,17 +3921,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>Heroic</t>
+          <t>MIBR</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>/team/7175/heroic</t>
+          <t>/team/9215/mibr</t>
         </is>
       </c>
     </row>
@@ -3943,27 +3943,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NertZ</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TeSeS</t>
+          <t>saffee</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>nicoodoz</t>
+          <t>drop</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>sjuush</t>
+          <t>brnz4n</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>kyxsan</t>
+          <t>insani</t>
         </is>
       </c>
     </row>
@@ -3975,27 +3975,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Guy Iluz</t>
+          <t>Raphael Lacerda</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>René Madsen</t>
+          <t>Rafael Costa</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Nico Tamjidi</t>
+          <t>André Abreu</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Rasmus Beck</t>
+          <t>Breno Poletto</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Damjan Stoilkovski</t>
+          <t>Felipe Yuji</t>
         </is>
       </c>
     </row>
@@ -4007,27 +4007,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -4039,27 +4039,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
@@ -4071,27 +4071,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>/player/9436/nertz</t>
+          <t>/player/11154/exit</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>/player/12018/teses</t>
+          <t>/player/18835/saffee</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>/player/13602/nicoodoz</t>
+          <t>/player/19750/drop</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>/player/14148/sjuush</t>
+          <t>/player/20987/brnz4n</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>/player/19677/kyxsan</t>
+          <t>/player/21037/insani</t>
         </is>
       </c>
     </row>
@@ -4103,17 +4103,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D122" s="1" t="inlineStr">
         <is>
-          <t>TheMongolz</t>
+          <t>BetBoom</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>/team/6248/themongolz</t>
+          <t>/team/12394/betboom</t>
         </is>
       </c>
     </row>
@@ -4125,27 +4125,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>bLitz</t>
+          <t>zorte</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Techno</t>
+          <t>nafany</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Senzu</t>
+          <t>s1ren</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>mzinho</t>
+          <t>KaiR0N-</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>danistzz</t>
         </is>
       </c>
     </row>
@@ -4157,27 +4157,27 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Garidmagnai Byambasuren</t>
+          <t>Aleksandr Zagodyrenko</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sodbayar Munkhbold</t>
+          <t>Vladislav Gorshkov</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Munkhbold Azbayar</t>
+          <t>Pavel Ogloblin</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Ayush Batbold</t>
+          <t>Aleksandr Anashkin</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Usukhbayar Banzragch</t>
+          <t>Danil Roslyakov</t>
         </is>
       </c>
     </row>
@@ -4189,22 +4189,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -4221,27 +4221,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -4253,27 +4253,27 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>/player/20194/blitz</t>
+          <t>/player/15662/zorte</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>/player/20275/techno</t>
+          <t>/player/16921/nafany</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>/player/20903/senzu</t>
+          <t>/player/18506/s1ren</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>/player/21001/mzinho</t>
+          <t>/player/19920/kair0n</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>/player/21809/910</t>
+          <t>/player/22039/danistzz</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D128" s="1" t="inlineStr">
@@ -4442,17 +4442,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D134" s="1" t="inlineStr">
         <is>
-          <t>ENCE</t>
+          <t>TheMongolz</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>/team/4869/ence</t>
+          <t>/team/6248/themongolz</t>
         </is>
       </c>
     </row>
@@ -4464,27 +4464,27 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>gla1ve</t>
+          <t>bLitz</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Goofy</t>
+          <t>Techno</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>dycha</t>
+          <t>Senzu</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>hades</t>
+          <t>mzinho</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Kylar</t>
+          <t>910</t>
         </is>
       </c>
     </row>
@@ -4496,27 +4496,27 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Lukas Rossander</t>
+          <t>Garidmagnai Byambasuren</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Krzysztof Górski</t>
+          <t>Sodbayar Munkhbold</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Paweł Dycha</t>
+          <t>Munkhbold Azbayar</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Olek Miskiewicz</t>
+          <t>Ayush Batbold</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Kacper Walukiewicz</t>
+          <t>Usukhbayar Banzragch</t>
         </is>
       </c>
     </row>
@@ -4528,27 +4528,27 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -4560,27 +4560,27 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mongolia</t>
         </is>
       </c>
     </row>
@@ -4592,27 +4592,27 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>/player/7412/gla1ve</t>
+          <t>/player/20194/blitz</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>/player/15428/goofy</t>
+          <t>/player/20275/techno</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>/player/16080/dycha</t>
+          <t>/player/20903/senzu</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>/player/16848/hades</t>
+          <t>/player/21001/mzinho</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>/player/19114/kylar</t>
+          <t>/player/21809/910</t>
         </is>
       </c>
     </row>
@@ -4624,17 +4624,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>9 Pandas</t>
+          <t>Liquid</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>/team/11883/9-pandas</t>
+          <t>/team/5973/liquid</t>
         </is>
       </c>
     </row>
@@ -4646,27 +4646,27 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>seized</t>
+          <t>cadiaN</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>clax</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>iDISBALANCE</t>
+          <t>Twistzz</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>glowiing</t>
+          <t>YEKINDAR</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>d1Ledez</t>
+          <t>skullz</t>
         </is>
       </c>
     </row>
@@ -4678,27 +4678,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Denis Kostin</t>
+          <t>Casper Møller</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Timur Sabirov</t>
+          <t>Keith Markovic</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Artem Egorov</t>
+          <t>Russel Van Dulken</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Aleksandr Matsievich</t>
+          <t>Mareks Gaļinskis</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Daniil Kustov</t>
+          <t>Felipe Medeiros</t>
         </is>
       </c>
     </row>
@@ -4710,27 +4710,27 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
@@ -4742,27 +4742,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
@@ -4774,27 +4774,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>/player/3347/seized</t>
+          <t>/player/7964/cadian</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>/player/12004/clax</t>
+          <t>/player/8520/naf</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>/player/14273/idisbalance</t>
+          <t>/player/10394/twistzz</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>/player/17508/glowiing</t>
+          <t>/player/13915/yekindar</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>/player/20357/d1ledez</t>
+          <t>/player/18676/skullz</t>
         </is>
       </c>
     </row>
@@ -4806,17 +4806,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D146" s="1" t="inlineStr">
         <is>
-          <t>Liquid</t>
+          <t>Rebels</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>/team/5973/liquid</t>
+          <t>/team/12642/rebels</t>
         </is>
       </c>
     </row>
@@ -4828,27 +4828,27 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>cadiaN</t>
+          <t>casey</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>olimp</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Twistzz</t>
+          <t>sNx</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>YEKINDAR</t>
+          <t>Flayy</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>skullz</t>
+          <t>kisserek</t>
         </is>
       </c>
     </row>
@@ -4860,27 +4860,27 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Casper Møller</t>
+          <t>Mariusz Jarząb</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Keith Markovic</t>
+          <t>Patryk Woźniak</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Russel Van Dulken</t>
+          <t>Rafał Snopek</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Mareks Gaļinskis</t>
+          <t>Alan Krupa</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Felipe Medeiros</t>
+          <t>Kamil Banak</t>
         </is>
       </c>
     </row>
@@ -4892,27 +4892,27 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -4924,27 +4924,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -4956,27 +4956,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>/player/7964/cadian</t>
+          <t>/player/20349/casey</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>/player/8520/naf</t>
+          <t>/player/21263/olimp</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>/player/10394/twistzz</t>
+          <t>/player/21265/snx</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>/player/13915/yekindar</t>
+          <t>/player/21715/flayy</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>/player/18676/skullz</t>
+          <t>/player/23295/kisserek</t>
         </is>
       </c>
     </row>
@@ -4988,17 +4988,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D152" s="1" t="inlineStr">
         <is>
-          <t>Ninjas in Pyjamas</t>
+          <t>9 Pandas</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>/team/4411/ninjas-in-pyjamas</t>
+          <t>/team/11883/9-pandas</t>
         </is>
       </c>
     </row>
@@ -5010,27 +5010,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>seized</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>es3tag</t>
+          <t>clax</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>k0nfig</t>
+          <t>iDISBALANCE</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>REZ</t>
+          <t>glowiing</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>headtr1ck</t>
+          <t>d1Ledez</t>
         </is>
       </c>
     </row>
@@ -5042,27 +5042,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Alejandro Masanet</t>
+          <t>Denis Kostin</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Patrick Hansen</t>
+          <t>Timur Sabirov</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Kristian Wienecke</t>
+          <t>Artem Egorov</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Fredrik Sterner</t>
+          <t>Aleksandr Matsievich</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Daniil Valitov</t>
+          <t>Daniil Kustov</t>
         </is>
       </c>
     </row>
@@ -5074,27 +5074,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -5106,27 +5106,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -5138,27 +5138,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>/player/8371/alex</t>
+          <t>/player/3347/seized</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>/player/8611/es3tag</t>
+          <t>/player/12004/clax</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>/player/9078/k0nfig</t>
+          <t>/player/14273/idisbalance</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>/player/9278/rez</t>
+          <t>/player/17508/glowiing</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>/player/19592/headtr1ck</t>
+          <t>/player/20357/d1ledez</t>
         </is>
       </c>
     </row>
@@ -5170,17 +5170,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D158" s="1" t="inlineStr">
         <is>
-          <t>Rebels</t>
+          <t>Ninjas in Pyjamas</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>/team/12642/rebels</t>
+          <t>/team/4411/ninjas-in-pyjamas</t>
         </is>
       </c>
     </row>
@@ -5192,27 +5192,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>casey</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>olimp</t>
+          <t>es3tag</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>sNx</t>
+          <t>k0nfig</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Flayy</t>
+          <t>REZ</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>kisserek</t>
+          <t>headtr1ck</t>
         </is>
       </c>
     </row>
@@ -5224,27 +5224,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Mariusz Jarząb</t>
+          <t>Alejandro Masanet</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Patryk Woźniak</t>
+          <t>Patrick Hansen</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Rafał Snopek</t>
+          <t>Kristian Wienecke</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Alan Krupa</t>
+          <t>Fredrik Sterner</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Kamil Banak</t>
+          <t>Daniil Valitov</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5256,27 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -5288,27 +5288,27 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Ukraine</t>
         </is>
       </c>
     </row>
@@ -5320,27 +5320,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>/player/20349/casey</t>
+          <t>/player/8371/alex</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>/player/21263/olimp</t>
+          <t>/player/8611/es3tag</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>/player/21265/snx</t>
+          <t>/player/9078/k0nfig</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>/player/21715/flayy</t>
+          <t>/player/9278/rez</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>/player/23295/kisserek</t>
+          <t>/player/19592/headtr1ck</t>
         </is>
       </c>
     </row>
@@ -5352,17 +5352,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D164" s="1" t="inlineStr">
         <is>
-          <t>SAW</t>
+          <t>Preasy</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>/team/10567/saw</t>
+          <t>/team/12334/preasy</t>
         </is>
       </c>
     </row>
@@ -5374,27 +5374,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>MUTiRiS</t>
+          <t>dupreeh</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>roman</t>
+          <t>refrezh</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>TMB</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>ewjerkz</t>
+          <t>roeJ</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>arrozdoce</t>
+          <t>Altekz</t>
         </is>
       </c>
     </row>
@@ -5406,27 +5406,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Christopher Fernandes</t>
+          <t>Peter Rasmussen</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Ricardo Oliveira</t>
+          <t>Ismail Ali</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>João Vieira</t>
+          <t>Thomas Bundsbæk</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Michel Pinto</t>
+          <t>Fredrik Jørgensen</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rafael Wing</t>
+          <t>Alexander Givskov</t>
         </is>
       </c>
     </row>
@@ -5438,27 +5438,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -5470,27 +5470,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -5502,27 +5502,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>/player/630/mutiris</t>
+          <t>/player/7398/dupreeh</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>/player/2241/roman</t>
+          <t>/player/10610/refrezh</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>/player/20462/story</t>
+          <t>/player/11995/tmb</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>/player/20464/ewjerkz</t>
+          <t>/player/14419/roej</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>/player/20465/arrozdoce</t>
+          <t>/player/16705/altekz</t>
         </is>
       </c>
     </row>
@@ -5534,17 +5534,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D170" s="1" t="inlineStr">
         <is>
-          <t>AMKAL</t>
+          <t>SAW</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>/team/12586/amkal</t>
+          <t>/team/10567/saw</t>
         </is>
       </c>
     </row>
@@ -5556,27 +5556,27 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>NickelBack</t>
+          <t>MUTiRiS</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Krad</t>
+          <t>roman</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Forester</t>
+          <t>story</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>TRAVIS</t>
+          <t>ewjerkz</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>ICY</t>
+          <t>arrozdoce</t>
         </is>
       </c>
     </row>
@@ -5588,27 +5588,27 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Aleksei Trofimov</t>
+          <t>Christopher Fernandes</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Vladislav Kravchenko</t>
+          <t>Ricardo Oliveira</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Igor Bezotecheskiy</t>
+          <t>João Vieira</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Aleksandr Timkiv</t>
+          <t>Michel Pinto</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Kaisar Faiznurov</t>
+          <t>Rafael Wing</t>
         </is>
       </c>
     </row>
@@ -5620,27 +5620,27 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -5652,27 +5652,27 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -5684,27 +5684,27 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>/player/11498/nickelback</t>
+          <t>/player/630/mutiris</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>/player/12027/krad</t>
+          <t>/player/2241/roman</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>/player/13982/forester</t>
+          <t>/player/20462/story</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>/player/16948/travis</t>
+          <t>/player/20464/ewjerkz</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>/player/21439/icy</t>
+          <t>/player/20465/arrozdoce</t>
         </is>
       </c>
     </row>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D176" s="1" t="inlineStr">
         <is>
-          <t>Preasy</t>
+          <t>3DMAX</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>/team/12334/preasy</t>
+          <t>/team/4914/3dmax</t>
         </is>
       </c>
     </row>
@@ -5738,27 +5738,27 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>dupreeh</t>
+          <t>hAdji</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>refrezh</t>
+          <t>Maka</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>TMB</t>
+          <t>Lucky</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>roeJ</t>
+          <t>Djoko</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Altekz</t>
+          <t>Ex3rcice</t>
         </is>
       </c>
     </row>
@@ -5770,27 +5770,27 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Peter Rasmussen</t>
+          <t>Ali Haïnouss</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ismail Ali</t>
+          <t>Bryan Canda</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Thomas Bundsbæk</t>
+          <t>Lucas Chastang</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Fredrik Jørgensen</t>
+          <t>Thomas Pavoni</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Alexander Givskov</t>
+          <t>Pierre Bulinge</t>
         </is>
       </c>
     </row>
@@ -5802,27 +5802,27 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -5834,27 +5834,27 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -5866,27 +5866,27 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>/player/7398/dupreeh</t>
+          <t>/player/9656/hadji</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>/player/10610/refrezh</t>
+          <t>/player/13138/maka</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>/player/11995/tmb</t>
+          <t>/player/13497/lucky</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>/player/14419/roej</t>
+          <t>/player/19738/djoko</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>/player/16705/altekz</t>
+          <t>/player/19739/ex3rcice</t>
         </is>
       </c>
     </row>
